--- a/statistics/export/templates/channel_month_template.xlsx
+++ b/statistics/export/templates/channel_month_template.xlsx
@@ -28,7 +28,7 @@
     <t>新增教师数量</t>
   </si>
   <si>
-    <t>同比增长率</t>
+    <t>环比增长率</t>
   </si>
   <si>
     <t>在册学生人数</t>
@@ -8065,32 +8065,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
